--- a/Project/Vanilla/Wireframe/Navigator.xlsx
+++ b/Project/Vanilla/Wireframe/Navigator.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Navigator" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Icon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Note</t>
   </si>
@@ -80,12 +80,102 @@
   <si>
     <t>Report</t>
   </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>File 1.frm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Action 1</t>
+  </si>
+  <si>
+    <t>Action 2</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Attachment 1</t>
+  </si>
+  <si>
+    <t>Attachment 2</t>
+  </si>
+  <si>
+    <t>Attachment 3</t>
+  </si>
+  <si>
+    <t>Attachment 4</t>
+  </si>
+  <si>
+    <t>Attachment 5</t>
+  </si>
+  <si>
+    <t>Attachment 6</t>
+  </si>
+  <si>
+    <t>Attachment Summery</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +209,49 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Wingdings 3"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 3"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +288,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -549,66 +698,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,9 +1031,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,19 +1054,75 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +1134,238 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -984,41 +1681,41 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1039,29 +1736,29 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1071,21 +1768,21 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="28"/>
+      <c r="W4" s="11"/>
     </row>
     <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="62"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1095,10 +1792,10 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="29"/>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1119,10 +1816,10 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="29"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1143,10 +1840,10 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="29"/>
+      <c r="W7" s="12"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1167,10 +1864,10 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="29"/>
+      <c r="W8" s="12"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1191,10 +1888,10 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="29"/>
+      <c r="W9" s="12"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1215,10 +1912,10 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="29"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1239,10 +1936,10 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="29"/>
+      <c r="W11" s="12"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1263,10 +1960,10 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="29"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1287,10 +1984,10 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="29"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1311,10 +2008,10 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="29"/>
+      <c r="W14" s="12"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1335,10 +2032,10 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="29"/>
+      <c r="W15" s="12"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1359,10 +2056,10 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="29"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1383,10 +2080,10 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="29"/>
+      <c r="W17" s="12"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1407,23 +2104,23 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="29"/>
+      <c r="W18" s="12"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1433,25 +2130,25 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="29"/>
+      <c r="W19" s="12"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1461,25 +2158,25 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="29"/>
+      <c r="W20" s="12"/>
     </row>
     <row r="21" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1489,83 +2186,83 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="29"/>
+      <c r="W21" s="12"/>
     </row>
     <row r="22" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="35"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="18"/>
     </row>
     <row r="23" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="22"/>
     </row>
     <row r="24" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="E2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1574,24 +2271,1112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="1" customWidth="1"/>
+    <col min="18" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="2.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3" style="1" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="26">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="99">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="28"/>
+    </row>
+    <row r="4" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="30"/>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="2:27" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="110"/>
+      <c r="H6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="76"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="79"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="79"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="79"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="79"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="79"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="79"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="82"/>
+    </row>
+    <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86">
+        <v>9</v>
+      </c>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="58"/>
+      <c r="X26" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="90"/>
+    </row>
+    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:U6"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="B27:AA27"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="V18:AA25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G3:AK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0.28515625" defaultRowHeight="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="136"/>
+      <c r="AE3" s="136"/>
+    </row>
+    <row r="4" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="137"/>
+      <c r="L4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AD4" s="136"/>
+      <c r="AF4" s="136"/>
+    </row>
+    <row r="5" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="137"/>
+      <c r="K5" s="138"/>
+      <c r="O5" s="136"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AC5" s="138"/>
+      <c r="AG5" s="136"/>
+    </row>
+    <row r="6" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Z6" s="137"/>
+      <c r="AB6" s="136"/>
+      <c r="AH6" s="136"/>
+    </row>
+    <row r="7" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="139"/>
+      <c r="K7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="Q7" s="136"/>
+      <c r="AA7" s="139"/>
+      <c r="AC7" s="137"/>
+      <c r="AE7" s="138"/>
+      <c r="AI7" s="136"/>
+    </row>
+    <row r="8" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="R8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="138"/>
+      <c r="AJ8" s="136"/>
+    </row>
+    <row r="9" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="Q9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="Y9" s="136"/>
+      <c r="AA9" s="136"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="137"/>
+      <c r="AI9" s="136"/>
+      <c r="AK9" s="136"/>
+    </row>
+    <row r="10" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="136"/>
+      <c r="Q10" s="136"/>
+      <c r="AA10" s="136"/>
+      <c r="AI10" s="136"/>
+    </row>
+    <row r="11" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AI11" s="136"/>
+    </row>
+    <row r="12" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="AA12" s="136"/>
+      <c r="AI12" s="136"/>
+    </row>
+    <row r="13" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AI13" s="136"/>
+    </row>
+    <row r="14" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="AA14" s="136"/>
+      <c r="AI14" s="136"/>
+    </row>
+    <row r="15" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+    </row>
+    <row r="17" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI17" s="137"/>
+    </row>
+    <row r="18" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="137"/>
+    </row>
+    <row r="19" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
+    </row>
+    <row r="20" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="137"/>
+      <c r="AG20" s="137"/>
+      <c r="AJ20" s="137"/>
+    </row>
+    <row r="21" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AI21" s="137"/>
+    </row>
+    <row r="22" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="137"/>
+      <c r="AE22" s="137"/>
+    </row>
+    <row r="23" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AC23" s="138"/>
+      <c r="AE23" s="137"/>
+      <c r="AG23" s="138"/>
+      <c r="AI23" s="137"/>
+      <c r="AJ23" s="137"/>
+      <c r="AK23" s="137"/>
+    </row>
+    <row r="24" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="138"/>
+      <c r="AI24" s="137"/>
+    </row>
+    <row r="25" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AI25" s="137"/>
+    </row>
+    <row r="26" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AI26" s="137"/>
+    </row>
+    <row r="27" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AI27" s="137"/>
+    </row>
+    <row r="28" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AI28" s="137"/>
+    </row>
+    <row r="29" spans="7:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>